--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N2">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O2">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P2">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q2">
-        <v>4996.62697217431</v>
+        <v>1172.561575598945</v>
       </c>
       <c r="R2">
-        <v>44969.64274956879</v>
+        <v>10553.05418039051</v>
       </c>
       <c r="S2">
-        <v>0.3158004580875573</v>
+        <v>0.1533083572420453</v>
       </c>
       <c r="T2">
-        <v>0.3158004580875574</v>
+        <v>0.1533083572420453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>44.109859</v>
       </c>
       <c r="O3">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P3">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q3">
-        <v>2996.260165077316</v>
+        <v>1220.191635882326</v>
       </c>
       <c r="R3">
-        <v>26966.34148569585</v>
+        <v>10981.72472294094</v>
       </c>
       <c r="S3">
-        <v>0.1893718178183639</v>
+        <v>0.1595358223486473</v>
       </c>
       <c r="T3">
-        <v>0.1893718178183639</v>
+        <v>0.1595358223486473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>37.631841</v>
       </c>
       <c r="O4">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P4">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q4">
-        <v>2556.226401150439</v>
+        <v>1040.993072116907</v>
       </c>
       <c r="R4">
-        <v>23006.03761035396</v>
+        <v>9368.937649052163</v>
       </c>
       <c r="S4">
-        <v>0.1615604832928991</v>
+        <v>0.1361062319521027</v>
       </c>
       <c r="T4">
-        <v>0.1615604832928992</v>
+        <v>0.1361062319521026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N5">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O5">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P5">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q5">
-        <v>1548.176437845739</v>
+        <v>892.1351701939867</v>
       </c>
       <c r="R5">
-        <v>13933.58794061165</v>
+        <v>8029.216531745879</v>
       </c>
       <c r="S5">
-        <v>0.09784897511756677</v>
+        <v>0.1166435778099154</v>
       </c>
       <c r="T5">
-        <v>0.09784897511756677</v>
+        <v>0.1166435778099154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
         <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>44.109859</v>
       </c>
       <c r="O6">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P6">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q6">
-        <v>928.3741642234124</v>
+        <v>928.3741642234123</v>
       </c>
       <c r="R6">
         <v>8355.367478010712</v>
       </c>
       <c r="S6">
-        <v>0.0586757802755941</v>
+        <v>0.1213817005306072</v>
       </c>
       <c r="T6">
-        <v>0.0586757802755941</v>
+        <v>0.1213817005306072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
         <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>37.631841</v>
       </c>
       <c r="O7">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P7">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q7">
-        <v>792.0322061460988</v>
+        <v>792.0322061460987</v>
       </c>
       <c r="R7">
-        <v>7128.289855314889</v>
+        <v>7128.289855314888</v>
       </c>
       <c r="S7">
-        <v>0.05005859651199732</v>
+        <v>0.1035554626161337</v>
       </c>
       <c r="T7">
-        <v>0.05005859651199732</v>
+        <v>0.1035554626161337</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.519512</v>
+        <v>14.129345</v>
       </c>
       <c r="N8">
-        <v>73.558536</v>
+        <v>42.388035</v>
       </c>
       <c r="O8">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="P8">
-        <v>0.4736537296697991</v>
+        <v>0.3414817166893976</v>
       </c>
       <c r="Q8">
-        <v>949.394082508304</v>
+        <v>547.0874188979901</v>
       </c>
       <c r="R8">
-        <v>8544.546742574736</v>
+        <v>4923.786770081911</v>
       </c>
       <c r="S8">
-        <v>0.06000429646467498</v>
+        <v>0.07152978163743692</v>
       </c>
       <c r="T8">
-        <v>0.06000429646467498</v>
+        <v>0.07152978163743692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>44.109859</v>
       </c>
       <c r="O9">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="P9">
-        <v>0.284029568377475</v>
+        <v>0.3553528814026711</v>
       </c>
       <c r="Q9">
-        <v>569.3103940360593</v>
+        <v>569.3103940360594</v>
       </c>
       <c r="R9">
-        <v>5123.793546324534</v>
+        <v>5123.793546324535</v>
       </c>
       <c r="S9">
-        <v>0.03598197028351695</v>
+        <v>0.07443535852341661</v>
       </c>
       <c r="T9">
-        <v>0.03598197028351695</v>
+        <v>0.07443535852341661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>37.631841</v>
       </c>
       <c r="O10">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079313</v>
       </c>
       <c r="P10">
-        <v>0.2423167019527259</v>
+        <v>0.3031654019079312</v>
       </c>
       <c r="Q10">
-        <v>485.700900291074</v>
+        <v>485.7009002910741</v>
       </c>
       <c r="R10">
-        <v>4371.308102619666</v>
+        <v>4371.308102619667</v>
       </c>
       <c r="S10">
-        <v>0.03069762214782946</v>
+        <v>0.06350370733969495</v>
       </c>
       <c r="T10">
-        <v>0.03069762214782946</v>
+        <v>0.06350370733969493</v>
       </c>
     </row>
   </sheetData>
